--- a/data/pole_legend-2.xlsx
+++ b/data/pole_legend-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\Documents\Laura\Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C91BF-CE58-4662-8024-FC8E4B7BF8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD3EA60-200B-4ABE-91D1-5FD23350C4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="90" windowWidth="13200" windowHeight="13550" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="12400" yWindow="0" windowWidth="13200" windowHeight="13680" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="serial_legend" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="270">
   <si>
     <t>Name</t>
   </si>
@@ -842,15 +842,6 @@
   </si>
   <si>
     <t>end_time</t>
-  </si>
-  <si>
-    <t>am/pm</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>am</t>
   </si>
   <si>
     <t>disturbance_time_min</t>
@@ -1397,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65CD237-8741-4522-BD73-50EE967D5C1A}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
       <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
@@ -1414,7 +1405,7 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
         <v>58</v>
@@ -5151,20 +5142,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D45E18-8591-4AAE-A661-DE39183F6AA8}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -5180,11 +5171,8 @@
       <c r="E1" t="s">
         <v>268</v>
       </c>
-      <c r="F1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>44715</v>
       </c>
@@ -5192,19 +5180,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="14">
-        <v>0.14930555555555555</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="D2" s="14">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>44756</v>
       </c>
@@ -5212,19 +5197,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="14">
-        <v>0.18819444444444444</v>
+        <v>0.68819444444444444</v>
       </c>
       <c r="D3" s="14">
-        <v>0.19166666666666668</v>
-      </c>
-      <c r="E3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3">
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>44756</v>
       </c>
@@ -5232,19 +5214,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="14">
-        <v>0.2013888888888889</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D4" s="14">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>44756</v>
       </c>
@@ -5252,19 +5231,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="14">
-        <v>0.2361111111111111</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="D5" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="E5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>44760</v>
       </c>
@@ -5272,19 +5248,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="14">
-        <v>0.21875</v>
+        <v>0.71875</v>
       </c>
       <c r="D6" s="14">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>44760</v>
       </c>
@@ -5292,19 +5265,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="14">
-        <v>0.2361111111111111</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="D7" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="E7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>44800</v>
       </c>
@@ -5312,19 +5282,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="14">
-        <v>0.12569444444444444</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="D8" s="14">
-        <v>0.12916666666666668</v>
-      </c>
-      <c r="E8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>44800</v>
       </c>
@@ -5332,19 +5299,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="14">
-        <v>0.1423611111111111</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="D9" s="14">
-        <v>0.15625</v>
-      </c>
-      <c r="E9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9">
+        <v>0.65625</v>
+      </c>
+      <c r="E9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>44800</v>
       </c>
@@ -5352,19 +5316,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="14">
-        <v>0.18402777777777779</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D10" s="14">
-        <v>0.21180555555555555</v>
-      </c>
-      <c r="E10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="E10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>44814</v>
       </c>
@@ -5377,14 +5338,11 @@
       <c r="D11" s="14">
         <v>0.45</v>
       </c>
-      <c r="E11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>44814</v>
       </c>
@@ -5397,14 +5355,11 @@
       <c r="D12" s="14">
         <v>0.49375000000000002</v>
       </c>
-      <c r="E12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>44821</v>
       </c>
@@ -5417,14 +5372,11 @@
       <c r="D13" s="14">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>44821</v>
       </c>
@@ -5437,14 +5389,11 @@
       <c r="D14" s="14">
         <v>0.49652777777777779</v>
       </c>
-      <c r="E14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>44829</v>
       </c>
@@ -5457,14 +5406,11 @@
       <c r="D15" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>44835</v>
       </c>
@@ -5477,14 +5423,11 @@
       <c r="D16" s="14">
         <v>0.40347222222222223</v>
       </c>
-      <c r="E16" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>44835</v>
       </c>
@@ -5497,14 +5440,11 @@
       <c r="D17" s="14">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>44835</v>
       </c>
@@ -5512,7 +5452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>44839</v>
       </c>
@@ -5525,14 +5465,11 @@
       <c r="D19" s="14">
         <v>0.4375</v>
       </c>
-      <c r="E19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>44839</v>
       </c>
@@ -5545,36 +5482,33 @@
       <c r="D20" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E20" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>44849</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>44849</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="E22">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>44867</v>
       </c>
@@ -5587,14 +5521,11 @@
       <c r="D23" s="14">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23">
+      <c r="E23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>44867</v>
       </c>
@@ -5607,32 +5538,29 @@
       <c r="D24" s="14">
         <v>0.48749999999999999</v>
       </c>
-      <c r="E24" t="s">
-        <v>270</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>44874</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="E25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>44874</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="E26">
         <v>30</v>
       </c>
     </row>
@@ -5646,7 +5574,7 @@
   <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:A265"/>
+      <selection activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
